--- a/school/excel/全部同学的Node.js成绩.xlsx
+++ b/school/excel/全部同学的Node.js成绩.xlsx
@@ -426,7 +426,7 @@
         <v>s1617439827390</v>
       </c>
       <c r="C4" t="str">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         <v>s1617439831774</v>
       </c>
       <c r="C6" t="str">
-        <v>未录入</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>s1617439853534</v>
       </c>
       <c r="C13" t="str">
-        <v>未录入</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
